--- a/medicine/Sexualité et sexologie/Prostitution_en_Guyane/Prostitution_en_Guyane.xlsx
+++ b/medicine/Sexualité et sexologie/Prostitution_en_Guyane/Prostitution_en_Guyane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La prostitution en Guyane est un phénomène répandu malgré son interdiction légale, en vertu des lois françaises réprimant les clients de la prostitution.
 </t>
@@ -511,11 +523,13 @@
           <t>Description du phénomène</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La prostitution en Guyane française est commune, notamment dans les mines d'or situées à l'intérieur du territoire[1]. Certaines personnes optent pour le travail du sexe du fait de la pauvreté[2]. Le taux de contamination au VIH / sida est le plus élevé de l'ensemble des territoires français, et les travailleuses du sexe sont des populations à risque du fait de l'utilisation intermittente du préservatif[3].
-Des femmes et enfants du Suriname sont victimes de trafic en Guyane française[4].
-Bien que les lupanars aient été interdits en 1946 par Loi Marthe Richard, les militaires français ont continué à diriger ce qu'ils appelaient un bordel militaire de campagne. Le dernier sur le territoire français était à Kourou jusqu'à sa fermeture en 1995, à la suite d'une plainte pour concurrence déloyale d'un proxénète local[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La prostitution en Guyane française est commune, notamment dans les mines d'or situées à l'intérieur du territoire. Certaines personnes optent pour le travail du sexe du fait de la pauvreté. Le taux de contamination au VIH / sida est le plus élevé de l'ensemble des territoires français, et les travailleuses du sexe sont des populations à risque du fait de l'utilisation intermittente du préservatif.
+Des femmes et enfants du Suriname sont victimes de trafic en Guyane française.
+Bien que les lupanars aient été interdits en 1946 par Loi Marthe Richard, les militaires français ont continué à diriger ce qu'ils appelaient un bordel militaire de campagne. Le dernier sur le territoire français était à Kourou jusqu'à sa fermeture en 1995, à la suite d'une plainte pour concurrence déloyale d'un proxénète local.
 </t>
         </is>
       </c>
